--- a/hasil_scoring.xlsx
+++ b/hasil_scoring.xlsx
@@ -3092,7 +3092,7 @@
         <v>6</v>
       </c>
       <c r="L62" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="M62" t="n">
         <v>8</v>
@@ -3995,7 +3995,7 @@
         <v>10</v>
       </c>
       <c r="L83" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="M83" t="n">
         <v>8</v>
@@ -4038,7 +4038,7 @@
         <v>6</v>
       </c>
       <c r="L84" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="M84" t="n">
         <v>9</v>
